--- a/distance_state_minimal_network_louisiana.xlsx
+++ b/distance_state_minimal_network_louisiana.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ciliabaanstra/Documents/CoSEM/Q3/Design Networked Systems/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EE78611-50BC-484C-9D79-5E2395F594B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3594C046-CFC8-734E-BA39-28D60CDD62E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="17920" windowHeight="20660" xr2:uid="{08BDF31F-6C10-4DD1-B317-59053BD9B238}"/>
   </bookViews>
@@ -494,7 +494,7 @@
   <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -764,7 +764,7 @@
         <v>7</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="D19" s="1">
         <v>445</v>

--- a/distance_state_minimal_network_louisiana.xlsx
+++ b/distance_state_minimal_network_louisiana.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ciliabaanstra/Documents/CoSEM/Q3/Design Networked Systems/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3594C046-CFC8-734E-BA39-28D60CDD62E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84AA7E70-AA0F-C245-A231-ACA7EB2423A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="17920" windowHeight="20660" xr2:uid="{08BDF31F-6C10-4DD1-B317-59053BD9B238}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33020" windowHeight="20660" xr2:uid="{08BDF31F-6C10-4DD1-B317-59053BD9B238}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -494,7 +494,7 @@
   <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -761,10 +761,10 @@
         <v>1</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>29</v>
       </c>
       <c r="D19" s="1">
         <v>445</v>

--- a/distance_state_minimal_network_louisiana.xlsx
+++ b/distance_state_minimal_network_louisiana.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ciliabaanstra/Documents/CoSEM/Q3/Design Networked Systems/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84AA7E70-AA0F-C245-A231-ACA7EB2423A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9382B8C1-969E-0040-956F-978CE11981D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33020" windowHeight="20660" xr2:uid="{08BDF31F-6C10-4DD1-B317-59053BD9B238}"/>
   </bookViews>
@@ -494,7 +494,7 @@
   <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
